--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.training/op-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.training/op-rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B666C8EE-B4B8-6C4A-A276-A1FB61223595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D805826-2F59-C24D-9928-CBAB41491510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="2420" windowWidth="32560" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="104">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -387,6 +387,18 @@
   </si>
   <si>
     <t>311f362b-8316-48c1-be7b-bfad1622d2e0</t>
+  </si>
+  <si>
+    <t>controlType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOW</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -493,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -516,11 +528,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -563,8 +595,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M37"/>
+  <dimension ref="A3:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.83203125" defaultRowHeight="21"/>
@@ -880,9 +918,9 @@
     <col min="3" max="3" width="29.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="65" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.1640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="66.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -892,20 +930,21 @@
     <col min="15" max="16384" width="119.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -922,13 +961,18 @@
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="I4" s="1"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -945,13 +989,18 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="I5" s="1"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
         <v>69</v>
       </c>
@@ -967,12 +1016,17 @@
       <c r="E6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="H6" s="11"/>
+      <c r="I6" s="1"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
         <v>70</v>
       </c>
@@ -988,12 +1042,17 @@
       <c r="E7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="H7" s="11"/>
+      <c r="I7" s="1"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="8" t="s">
         <v>71</v>
       </c>
@@ -1009,12 +1068,17 @@
       <c r="E8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="H8" s="11"/>
+      <c r="I8" s="1"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="8" t="s">
         <v>72</v>
       </c>
@@ -1030,12 +1094,17 @@
       <c r="E9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="H9" s="11"/>
+      <c r="I9" s="1"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="8" t="s">
         <v>73</v>
       </c>
@@ -1051,12 +1120,17 @@
       <c r="E10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="H10" s="11"/>
+      <c r="I10" s="1"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="8" t="s">
         <v>74</v>
       </c>
@@ -1072,12 +1146,17 @@
       <c r="E11" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" s="19" customFormat="1">
+      <c r="H11" s="11"/>
+      <c r="I11" s="1"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" s="19" customFormat="1">
       <c r="A12" s="14" t="s">
         <v>75</v>
       </c>
@@ -1093,17 +1172,20 @@
       <c r="E12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="I12" s="20"/>
+      <c r="H12" s="17"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="8" t="s">
         <v>76</v>
       </c>
@@ -1119,12 +1201,17 @@
       <c r="E13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="H13" s="11"/>
+      <c r="I13" s="1"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="8" t="s">
         <v>77</v>
       </c>
@@ -1140,12 +1227,17 @@
       <c r="E14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="H14" s="11"/>
+      <c r="I14" s="1"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="8" t="s">
         <v>78</v>
       </c>
@@ -1161,12 +1253,17 @@
       <c r="E15" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="H15" s="11"/>
+      <c r="I15" s="1"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="8" t="s">
         <v>79</v>
       </c>
@@ -1182,12 +1279,17 @@
       <c r="E16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="11"/>
+      <c r="I16" s="1"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
         <v>80</v>
       </c>
@@ -1203,12 +1305,17 @@
       <c r="E17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="11"/>
+      <c r="I17" s="1"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
         <v>81</v>
       </c>
@@ -1224,12 +1331,17 @@
       <c r="E18" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="11"/>
+      <c r="I18" s="1"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="12" t="s">
         <v>82</v>
       </c>
@@ -1245,12 +1357,17 @@
       <c r="E19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="11"/>
+      <c r="I19" s="1"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
         <v>83</v>
       </c>
@@ -1266,12 +1383,17 @@
       <c r="E20" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="11"/>
+      <c r="I20" s="1"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="8" t="s">
         <v>84</v>
       </c>
@@ -1287,12 +1409,17 @@
       <c r="E21" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="11"/>
+      <c r="I21" s="1"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
         <v>85</v>
       </c>
@@ -1308,12 +1435,17 @@
       <c r="E22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="11"/>
+      <c r="I22" s="1"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="8" t="s">
         <v>86</v>
       </c>
@@ -1329,12 +1461,17 @@
       <c r="E23" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="11"/>
+      <c r="I23" s="1"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
         <v>87</v>
       </c>
@@ -1350,12 +1487,17 @@
       <c r="E24" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="11"/>
+      <c r="I24" s="1"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
         <v>88</v>
       </c>
@@ -1371,12 +1513,17 @@
       <c r="E25" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="11"/>
+      <c r="I25" s="1"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
         <v>89</v>
       </c>
@@ -1392,12 +1539,17 @@
       <c r="E26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="11"/>
+      <c r="I26" s="1"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
         <v>90</v>
       </c>
@@ -1413,12 +1565,17 @@
       <c r="E27" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="11"/>
+      <c r="I27" s="1"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
         <v>91</v>
       </c>
@@ -1434,12 +1591,17 @@
       <c r="E28" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="11"/>
+      <c r="I28" s="1"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
         <v>92</v>
       </c>
@@ -1455,12 +1617,17 @@
       <c r="E29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="11"/>
+      <c r="I29" s="1"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="8" t="s">
         <v>93</v>
       </c>
@@ -1476,12 +1643,17 @@
       <c r="E30" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="11"/>
+      <c r="I30" s="1"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="8" t="s">
         <v>94</v>
       </c>
@@ -1497,12 +1669,17 @@
       <c r="E31" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="11"/>
+      <c r="I31" s="1"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
         <v>95</v>
       </c>
@@ -1518,12 +1695,17 @@
       <c r="E32" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="11"/>
+      <c r="I32" s="1"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="8" t="s">
         <v>96</v>
       </c>
@@ -1539,12 +1721,17 @@
       <c r="E33" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="11"/>
+      <c r="I33" s="1"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
         <v>97</v>
       </c>
@@ -1560,12 +1747,17 @@
       <c r="E34" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="11"/>
+      <c r="I34" s="1"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="8" t="s">
         <v>98</v>
       </c>
@@ -1581,12 +1773,17 @@
       <c r="E35" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="11"/>
+      <c r="I35" s="1"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="8" t="s">
         <v>99</v>
       </c>
@@ -1602,12 +1799,17 @@
       <c r="E36" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="11"/>
+      <c r="I36" s="1"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="8" t="s">
         <v>100</v>
       </c>
@@ -1623,14 +1825,19 @@
       <c r="E37" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="1"/>
+      <c r="N37" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.training/op-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.training/op-rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D805826-2F59-C24D-9928-CBAB41491510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7EF905-0EDD-5C42-939D-08EE3D4A967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="2420" windowWidth="32560" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-39420" yWindow="-8320" windowWidth="32560" windowHeight="26460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI-LIST" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="106">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -398,6 +398,14 @@
   </si>
   <si>
     <t>FLOW</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理顺序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiSort</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -595,13 +603,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -905,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:N37"/>
+  <dimension ref="A3:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F37"/>
+      <selection activeCell="H33" sqref="H33:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.83203125" defaultRowHeight="21"/>
@@ -920,8 +928,8 @@
     <col min="5" max="5" width="25" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.1640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="66.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="61.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -930,21 +938,22 @@
     <col min="15" max="16384" width="119.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -967,12 +976,16 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -995,12 +1008,16 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="8" t="s">
         <v>69</v>
       </c>
@@ -1016,17 +1033,21 @@
       <c r="E6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="11">
+        <v>1005</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="1"/>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="8" t="s">
         <v>70</v>
       </c>
@@ -1042,17 +1063,21 @@
       <c r="E7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="11">
+        <v>1010</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="1"/>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="8" t="s">
         <v>71</v>
       </c>
@@ -1068,17 +1093,21 @@
       <c r="E8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="11">
+        <v>1005</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="1"/>
       <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="8" t="s">
         <v>72</v>
       </c>
@@ -1094,17 +1123,21 @@
       <c r="E9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="11">
+        <v>1010</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="1"/>
       <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="8" t="s">
         <v>73</v>
       </c>
@@ -1120,17 +1153,21 @@
       <c r="E10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="11">
+        <v>1015</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="1"/>
       <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="8" t="s">
         <v>74</v>
       </c>
@@ -1146,17 +1183,21 @@
       <c r="E11" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="11">
+        <v>1020</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="1"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" s="19" customFormat="1">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" s="19" customFormat="1">
       <c r="A12" s="14" t="s">
         <v>75</v>
       </c>
@@ -1172,20 +1213,23 @@
       <c r="E12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="J12" s="20"/>
+      <c r="H12" s="17">
+        <v>1025</v>
+      </c>
+      <c r="I12" s="17"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="8" t="s">
         <v>76</v>
       </c>
@@ -1201,17 +1245,21 @@
       <c r="E13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="11">
+        <v>1005</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="1"/>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="8" t="s">
         <v>77</v>
       </c>
@@ -1227,17 +1275,21 @@
       <c r="E14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="11">
+        <v>1010</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="1"/>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="8" t="s">
         <v>78</v>
       </c>
@@ -1253,17 +1305,21 @@
       <c r="E15" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="11">
+        <v>1015</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="1"/>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="8" t="s">
         <v>79</v>
       </c>
@@ -1279,17 +1335,21 @@
       <c r="E16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="11">
+        <v>1020</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="1"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="8" t="s">
         <v>80</v>
       </c>
@@ -1305,17 +1365,21 @@
       <c r="E17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="17">
+        <v>1025</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="1"/>
       <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="8" t="s">
         <v>81</v>
       </c>
@@ -1331,17 +1395,21 @@
       <c r="E18" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="11">
+        <v>1005</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="1"/>
       <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="12" t="s">
         <v>82</v>
       </c>
@@ -1357,17 +1425,21 @@
       <c r="E19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="11">
+        <v>1010</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="1"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="8" t="s">
         <v>83</v>
       </c>
@@ -1383,17 +1455,21 @@
       <c r="E20" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="11">
+        <v>1015</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="1"/>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="8" t="s">
         <v>84</v>
       </c>
@@ -1409,17 +1485,21 @@
       <c r="E21" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="11">
+        <v>1020</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="1"/>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="8" t="s">
         <v>85</v>
       </c>
@@ -1435,17 +1515,21 @@
       <c r="E22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="17">
+        <v>1025</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="1"/>
       <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="8" t="s">
         <v>86</v>
       </c>
@@ -1461,17 +1545,21 @@
       <c r="E23" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="11">
+        <v>1005</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="1"/>
       <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="8" t="s">
         <v>87</v>
       </c>
@@ -1487,17 +1575,21 @@
       <c r="E24" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="11">
+        <v>1010</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="1"/>
       <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="8" t="s">
         <v>88</v>
       </c>
@@ -1513,17 +1605,21 @@
       <c r="E25" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="11">
+        <v>1015</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="1"/>
       <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="8" t="s">
         <v>89</v>
       </c>
@@ -1539,17 +1635,21 @@
       <c r="E26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="11">
+        <v>1020</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="1"/>
       <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="8" t="s">
         <v>90</v>
       </c>
@@ -1565,17 +1665,21 @@
       <c r="E27" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="17">
+        <v>1025</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="1"/>
       <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="8" t="s">
         <v>91</v>
       </c>
@@ -1591,17 +1695,21 @@
       <c r="E28" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="1"/>
+      <c r="H28" s="11">
+        <v>1005</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="1"/>
       <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="8" t="s">
         <v>92</v>
       </c>
@@ -1617,17 +1725,21 @@
       <c r="E29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="1"/>
+      <c r="H29" s="11">
+        <v>1010</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="1"/>
       <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="8" t="s">
         <v>93</v>
       </c>
@@ -1643,17 +1755,21 @@
       <c r="E30" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="1"/>
+      <c r="H30" s="11">
+        <v>1015</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="1"/>
       <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="8" t="s">
         <v>94</v>
       </c>
@@ -1669,17 +1785,21 @@
       <c r="E31" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="1"/>
+      <c r="H31" s="11">
+        <v>1020</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="1"/>
       <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="8" t="s">
         <v>95</v>
       </c>
@@ -1695,17 +1815,21 @@
       <c r="E32" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="1"/>
+      <c r="H32" s="17">
+        <v>1025</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="1"/>
       <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="8" t="s">
         <v>96</v>
       </c>
@@ -1721,17 +1845,21 @@
       <c r="E33" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="1"/>
+      <c r="H33" s="11">
+        <v>1005</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="1"/>
       <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="8" t="s">
         <v>97</v>
       </c>
@@ -1747,17 +1875,21 @@
       <c r="E34" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="1"/>
+      <c r="H34" s="11">
+        <v>1010</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="1"/>
       <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="8" t="s">
         <v>98</v>
       </c>
@@ -1773,17 +1905,21 @@
       <c r="E35" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="1"/>
+      <c r="H35" s="11">
+        <v>1015</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="1"/>
       <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="8" t="s">
         <v>99</v>
       </c>
@@ -1799,17 +1935,21 @@
       <c r="E36" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="1"/>
+      <c r="H36" s="11">
+        <v>1020</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="1"/>
       <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="8" t="s">
         <v>100</v>
       </c>
@@ -1825,19 +1965,23 @@
       <c r="E37" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="22" t="s">
         <v>103</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="1"/>
+      <c r="H37" s="17">
+        <v>1025</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="1"/>
       <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
